--- a/static/documentos/reporte_4.xlsx
+++ b/static/documentos/reporte_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.fonseca\PycharmProjects\uni2data\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8531AC2D-C2B2-43AF-A16A-EBC562FE089D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEABF77-E01B-4000-B7B5-3E1D04846F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -770,9 +770,6 @@
     </r>
   </si>
   <si>
-    <t>Código SION:</t>
-  </si>
-  <si>
     <t>Coordinador administrativo</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Cargue:</t>
+  </si>
+  <si>
+    <t>Código:</t>
   </si>
 </sst>
 </file>
@@ -1855,18 +1855,195 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1882,12 +2059,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1926,177 +2097,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,7 +2385,7 @@
   <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,219 +2409,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="122" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="124"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="125" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="120" t="s">
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="129"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="131"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="130"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="142" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="144"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="118"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="147" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+    </row>
+    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="114"/>
+      <c r="J8" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="149"/>
-    </row>
-    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="136" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="83"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="140"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="152" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="153"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="154"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="98" t="s">
+      <c r="J10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="98"/>
-      <c r="L10" s="150" t="s">
+      <c r="K10" s="77"/>
+      <c r="L10" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="109" t="s">
+      <c r="M10" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="110"/>
-      <c r="O10" s="103" t="s">
+      <c r="N10" s="133"/>
+      <c r="O10" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="104"/>
+      <c r="P10" s="127"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="146"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="151"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="80"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="105"/>
-      <c r="P11" s="106"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="129"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2629,18 +2629,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="108"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="131"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2648,18 +2648,18 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="124"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2667,18 +2667,18 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="124"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="37">
@@ -2686,26 +2686,26 @@
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
       <c r="L15" s="51"/>
       <c r="M15" s="47"/>
       <c r="N15" s="48"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
     </row>
     <row r="16" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H16" s="74" t="s">
+      <c r="H16" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
       <c r="L16" s="26">
         <f>SUM(L12:L15)</f>
         <v>0</v>
@@ -2719,13 +2719,13 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -2750,12 +2750,12 @@
       <c r="J19" s="57"/>
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
-      <c r="M19" s="90" t="s">
+      <c r="M19" s="147" t="s">
         <v>230</v>
       </c>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="96" t="s">
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="153" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2771,10 +2771,10 @@
       <c r="J20" s="64"/>
       <c r="K20" s="64"/>
       <c r="L20" s="65"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="97"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="154"/>
     </row>
     <row r="21" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="59"/>
@@ -2788,10 +2788,10 @@
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
       <c r="L21" s="65"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="97"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="154"/>
     </row>
     <row r="22" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="59"/>
@@ -2805,37 +2805,37 @@
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
       <c r="L22" s="65"/>
-      <c r="M22" s="92" t="s">
+      <c r="M22" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="88" t="s">
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="145" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="80" t="s">
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="88"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="139" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="145"/>
     </row>
     <row r="24" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="68"/>
@@ -2849,10 +2849,10 @@
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
       <c r="L24" s="73"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="89"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="146"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2863,16 +2863,31 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="M19:O21"/>
+    <mergeCell ref="M22:O24"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B1:D8"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:K4"/>
@@ -2889,31 +2904,16 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="J6:P6"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="M19:O21"/>
-    <mergeCell ref="M22:O24"/>
-    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
